--- a/TAT001/files/masiva.xlsx
+++ b/TAT001/files/masiva.xlsx
@@ -4,13 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENCABEZADO" sheetId="1" r:id="rId1"/>
     <sheet name="DISTRIBUCIÓN" sheetId="2" r:id="rId2"/>
     <sheet name="RELACIONADA" sheetId="3" r:id="rId3"/>
+    <sheet name="SOPORTE" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="allowance">Hoja1!$B$1:$B$18</definedName>
+    <definedName name="categorias">Hoja1!$A$1:$A$121</definedName>
+    <definedName name="paises">Hoja1!$C$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="189">
   <si>
     <t>GALL</t>
   </si>
@@ -117,6 +124,477 @@
   </si>
   <si>
     <t>BELNR</t>
+  </si>
+  <si>
+    <t>SOPORTE</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Rollbacks_Non-kellogg coupons</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Total products</t>
+  </si>
+  <si>
+    <t>Trade Promotion - Other</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Trade Promotion - In-store sampling Demonstration costs</t>
+  </si>
+  <si>
+    <t>Caribe</t>
+  </si>
+  <si>
+    <t>Ogt cookies</t>
+  </si>
+  <si>
+    <t>Everyday Low Price</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Sprayed Btr</t>
+  </si>
+  <si>
+    <t>Sponsorship / In-Store Adv</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Sand Crack</t>
+  </si>
+  <si>
+    <t>Direct Plant ship  ("DPS")</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Spec Crax</t>
+  </si>
+  <si>
+    <t>Costumer pickup allowances  ("CPU")</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Warehouse allowances_DxD</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>Toasted</t>
+  </si>
+  <si>
+    <t>Cash Discounts</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Toasts</t>
+  </si>
+  <si>
+    <t>Logistic Discount</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>OBoises</t>
+  </si>
+  <si>
+    <t>Distribution Comision</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Free Goods</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Worthington</t>
+  </si>
+  <si>
+    <t>Growth Program</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Int Class</t>
+  </si>
+  <si>
+    <t>Consumer Data (before: Store openings and Info Exchange)</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Chipwich</t>
+  </si>
+  <si>
+    <t>Store Openings</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Beberages</t>
+  </si>
+  <si>
+    <t>Unsaleables</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Rollbacks</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Cleareance</t>
+  </si>
+  <si>
+    <t>Option Bulk</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>Franchise Bags</t>
+  </si>
+  <si>
+    <t>Carton Pln</t>
+  </si>
+  <si>
+    <t>Cello Plain</t>
+  </si>
+  <si>
+    <t>Elf Deli</t>
+  </si>
+  <si>
+    <t>Enrb&amp;Marsh</t>
+  </si>
+  <si>
+    <t>Sugarwafer</t>
+  </si>
+  <si>
+    <t>Groc Vend</t>
+  </si>
+  <si>
+    <t>Groc Cone</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Soft Batch</t>
+  </si>
+  <si>
+    <t>KL Crx Fld</t>
+  </si>
+  <si>
+    <t>Hlth Care</t>
+  </si>
+  <si>
+    <t>KL Crusts</t>
+  </si>
+  <si>
+    <t>PL Crusts</t>
+  </si>
+  <si>
+    <t>KL Saltines</t>
+  </si>
+  <si>
+    <t>PL Saltines</t>
+  </si>
+  <si>
+    <t>KL Spec</t>
+  </si>
+  <si>
+    <t>KL Blk Crax</t>
+  </si>
+  <si>
+    <t>PL Blk Crax</t>
+  </si>
+  <si>
+    <t>Cone Access</t>
+  </si>
+  <si>
+    <t>Cones/Cups</t>
+  </si>
+  <si>
+    <t>KL Blk Cks</t>
+  </si>
+  <si>
+    <t>PL Blk Cks</t>
+  </si>
+  <si>
+    <t>Crx Meals</t>
+  </si>
+  <si>
+    <t>Pretzels</t>
+  </si>
+  <si>
+    <t>Cp Spec</t>
+  </si>
+  <si>
+    <t>Cp Misc</t>
+  </si>
+  <si>
+    <t>Sld Dressing</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Base Prod</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Co-Pk Vend</t>
+  </si>
+  <si>
+    <t>Kellog Pop Tarts</t>
+  </si>
+  <si>
+    <t>Kellog Cereal</t>
+  </si>
+  <si>
+    <t>Elfin Loaves</t>
+  </si>
+  <si>
+    <t>Grn Olives</t>
+  </si>
+  <si>
+    <t>Ripe Olives</t>
+  </si>
+  <si>
+    <t>SBI Misc</t>
+  </si>
+  <si>
+    <t>Peanut Butter</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Croutons</t>
+  </si>
+  <si>
+    <t>Vend-Mfg</t>
+  </si>
+  <si>
+    <t>Sandwich Mkr</t>
+  </si>
+  <si>
+    <t>Van Wafer</t>
+  </si>
+  <si>
+    <t>Breadstix</t>
+  </si>
+  <si>
+    <t>KL Spec Ck</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Elfin Snack</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Egg Rolls</t>
+  </si>
+  <si>
+    <t>Other Dim</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Min Middle</t>
+  </si>
+  <si>
+    <t>Carr's Crackers</t>
+  </si>
+  <si>
+    <t>Carr's Cookies</t>
+  </si>
+  <si>
+    <t>Miscelaneous</t>
+  </si>
+  <si>
+    <t>Fazermint</t>
+  </si>
+  <si>
+    <t>Ka-Me</t>
+  </si>
+  <si>
+    <t>Salty Snacks</t>
+  </si>
+  <si>
+    <t>Iced Animal</t>
+  </si>
+  <si>
+    <t>Bag Sandwich</t>
+  </si>
+  <si>
+    <t>Elf Sandwich</t>
+  </si>
+  <si>
+    <t>Sandies</t>
+  </si>
+  <si>
+    <t>Chips Deluxe</t>
+  </si>
+  <si>
+    <t>Raisin Ruckus</t>
+  </si>
+  <si>
+    <t>Fudge Shoppe</t>
+  </si>
+  <si>
+    <t>Elfin Delight</t>
+  </si>
+  <si>
+    <t>Magic Middle</t>
+  </si>
+  <si>
+    <t>Box Cookie</t>
+  </si>
+  <si>
+    <t>Animal Crax</t>
+  </si>
+  <si>
+    <t>Cones</t>
+  </si>
+  <si>
+    <t>Single Sweet</t>
+  </si>
+  <si>
+    <t>Single Bite S</t>
+  </si>
+  <si>
+    <t>Single Fudge S</t>
+  </si>
+  <si>
+    <t>EK Biggs</t>
+  </si>
+  <si>
+    <t>SB Single Serve</t>
+  </si>
+  <si>
+    <t>Chips D Elf</t>
+  </si>
+  <si>
+    <t>Sandies Elf</t>
+  </si>
+  <si>
+    <t>Vend Cookie</t>
+  </si>
+  <si>
+    <t>Shippers</t>
+  </si>
+  <si>
+    <t>Zesta</t>
+  </si>
+  <si>
+    <t>Graham Select</t>
+  </si>
+  <si>
+    <t>Club Partner</t>
+  </si>
+  <si>
+    <t>Townhouse</t>
+  </si>
+  <si>
+    <t>Cracker Pack</t>
+  </si>
+  <si>
+    <t>Wheatables</t>
+  </si>
+  <si>
+    <t>MunchEms</t>
+  </si>
+  <si>
+    <t>Toasteds</t>
+  </si>
+  <si>
+    <t>Crax Pack 144</t>
+  </si>
+  <si>
+    <t>Crax Pack 120</t>
+  </si>
+  <si>
+    <t>Wheatable 72</t>
+  </si>
+  <si>
+    <t>MunchEm 72</t>
+  </si>
+  <si>
+    <t>MunchEm 48</t>
+  </si>
+  <si>
+    <t>Conv Townhouse</t>
+  </si>
+  <si>
+    <t>Conv Club</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>allowance</t>
+  </si>
+  <si>
+    <t>paises</t>
   </si>
 </sst>
 </file>
@@ -127,7 +605,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +616,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -164,11 +649,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -190,12 +683,33 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -317,20 +831,20 @@
     <filterColumn colId="14"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" name="NUM_DOC" dataDxfId="33"/>
-    <tableColumn id="17" name="TSOL2" dataDxfId="32"/>
-    <tableColumn id="2" name="GALL" dataDxfId="31"/>
-    <tableColumn id="3" name="BUKRS" dataDxfId="30"/>
-    <tableColumn id="4" name="LAND" dataDxfId="29"/>
-    <tableColumn id="5" name="ESTADO" dataDxfId="28"/>
-    <tableColumn id="6" name="CIUDAD" dataDxfId="27"/>
-    <tableColumn id="7" name="CONCEPTO" dataDxfId="26"/>
-    <tableColumn id="8" name="MECÁNICA DE NEGOCIACIÓN" dataDxfId="25"/>
-    <tableColumn id="12" name="KUNNR" dataDxfId="24"/>
-    <tableColumn id="15" name="CONTACTO" dataDxfId="23"/>
+    <tableColumn id="1" name="NUM_DOC" dataDxfId="36"/>
+    <tableColumn id="17" name="TSOL2" dataDxfId="35"/>
+    <tableColumn id="2" name="GALL" dataDxfId="34"/>
+    <tableColumn id="3" name="BUKRS" dataDxfId="33"/>
+    <tableColumn id="4" name="LAND" dataDxfId="32"/>
+    <tableColumn id="5" name="ESTADO" dataDxfId="31"/>
+    <tableColumn id="6" name="CIUDAD" dataDxfId="30"/>
+    <tableColumn id="7" name="CONCEPTO" dataDxfId="29"/>
+    <tableColumn id="8" name="MECÁNICA DE NEGOCIACIÓN" dataDxfId="28"/>
+    <tableColumn id="12" name="KUNNR" dataDxfId="27"/>
+    <tableColumn id="15" name="CONTACTO" dataDxfId="26"/>
     <tableColumn id="16" name="EMAIL"/>
-    <tableColumn id="13" name="VIGENCIA DE" dataDxfId="22"/>
-    <tableColumn id="14" name="VIGENCIA A" dataDxfId="21"/>
+    <tableColumn id="13" name="VIGENCIA DE" dataDxfId="25"/>
+    <tableColumn id="14" name="VIGENCIA A" dataDxfId="24"/>
     <tableColumn id="18" name="MONEDA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -341,16 +855,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla16" displayName="Tabla16" ref="A1:J2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="NUM_DOC" dataDxfId="20"/>
-    <tableColumn id="2" name="VIGENCIA DE" dataDxfId="19"/>
-    <tableColumn id="3" name="VIGENCIA A" dataDxfId="18"/>
-    <tableColumn id="4" name="MATERIAL" dataDxfId="17"/>
-    <tableColumn id="5" name="CATEGORIA" dataDxfId="16"/>
-    <tableColumn id="6" name="COSTO UNIT" dataDxfId="15"/>
-    <tableColumn id="7" name="PORC APOYO" dataDxfId="14"/>
-    <tableColumn id="8" name="PRECIO SUGERIDO" dataDxfId="13"/>
-    <tableColumn id="9" name="VOLUMEN" dataDxfId="12"/>
-    <tableColumn id="10" name="APOYO" dataDxfId="11"/>
+    <tableColumn id="1" name="NUM_DOC" dataDxfId="23"/>
+    <tableColumn id="2" name="VIGENCIA DE" dataDxfId="22"/>
+    <tableColumn id="3" name="VIGENCIA A" dataDxfId="21"/>
+    <tableColumn id="4" name="MATERIAL" dataDxfId="20"/>
+    <tableColumn id="5" name="CATEGORIA" dataDxfId="19"/>
+    <tableColumn id="6" name="COSTO UNIT" dataDxfId="18"/>
+    <tableColumn id="7" name="PORC APOYO" dataDxfId="17"/>
+    <tableColumn id="8" name="PRECIO SUGERIDO" dataDxfId="16"/>
+    <tableColumn id="9" name="VOLUMEN" dataDxfId="15"/>
+    <tableColumn id="10" name="APOYO" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -362,17 +876,29 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="NUM_DOC" dataDxfId="10"/>
-    <tableColumn id="2" name="FACTURA" dataDxfId="9"/>
-    <tableColumn id="3" name="FECHA" dataDxfId="8"/>
-    <tableColumn id="4" name="PROVEEDOR" dataDxfId="7"/>
-    <tableColumn id="5" name="CONTROL" dataDxfId="6"/>
-    <tableColumn id="6" name="AUTORIZACION" dataDxfId="5"/>
-    <tableColumn id="7" name="VENCIMIENTO" dataDxfId="4"/>
-    <tableColumn id="8" name="FACTURAK" dataDxfId="3"/>
-    <tableColumn id="9" name="EJERCICIOK" dataDxfId="2"/>
-    <tableColumn id="10" name="BILL_DOC" dataDxfId="1"/>
-    <tableColumn id="11" name="BELNR" dataDxfId="0"/>
+    <tableColumn id="1" name="NUM_DOC" dataDxfId="13"/>
+    <tableColumn id="2" name="FACTURA" dataDxfId="12"/>
+    <tableColumn id="3" name="FECHA" dataDxfId="11"/>
+    <tableColumn id="4" name="PROVEEDOR" dataDxfId="10"/>
+    <tableColumn id="5" name="CONTROL" dataDxfId="9"/>
+    <tableColumn id="6" name="AUTORIZACION" dataDxfId="8"/>
+    <tableColumn id="7" name="VENCIMIENTO" dataDxfId="7"/>
+    <tableColumn id="8" name="FACTURAK" dataDxfId="6"/>
+    <tableColumn id="9" name="EJERCICIOK" dataDxfId="5"/>
+    <tableColumn id="10" name="BILL_DOC" dataDxfId="4"/>
+    <tableColumn id="11" name="BELNR" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla164" displayName="Tabla164" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="NUM_DOC" dataDxfId="2"/>
+    <tableColumn id="2" name="TIPO" dataDxfId="1"/>
+    <tableColumn id="3" name="SOPORTE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -689,12 +1215,14 @@
     <col min="7" max="7" width="11.42578125" style="12"/>
     <col min="8" max="8" width="34.28515625" style="12" customWidth="1"/>
     <col min="9" max="9" width="40.85546875" style="12" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" style="11"/>
+    <col min="10" max="12" width="11.42578125" style="11"/>
+    <col min="13" max="13" width="11.42578125" style="11" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" style="12" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -741,13 +1269,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1">
       <c r="K2" s="12"/>
       <c r="L2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" customHeight="1">
       <c r="K3" s="12"/>
       <c r="L3"/>
       <c r="M3" s="2"/>
@@ -850,6 +1377,14 @@
       <c r="N19" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1000">
+      <formula1>allowance</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1000">
+      <formula1>paises</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
@@ -860,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -871,7 +1406,7 @@
     <col min="1" max="1" width="14.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="7" bestFit="1" customWidth="1"/>
@@ -923,117 +1458,12 @@
       <c r="I2" s="10"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="6"/>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E601">
+      <formula1>categorias</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1046,7 +1476,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1228,4 +1658,792 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60">
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90">
+      <c r="A3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="105">
+      <c r="A14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>